--- a/tests/data/desired/streamdetailedreport.xlsx
+++ b/tests/data/desired/streamdetailedreport.xlsx
@@ -9,7 +9,7 @@
     <sheet name="full" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$G$26</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -117,6 +117,8 @@
     <col min="3" max="3" width="7.01171875" customWidth="true"/>
     <col min="4" max="4" width="12.78125" customWidth="true"/>
     <col min="5" max="5" width="12.9140625" customWidth="true"/>
+    <col min="6" max="6" width="14.75390625" customWidth="true"/>
+    <col min="7" max="7" width="12.4609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -140,6 +142,16 @@
           <t>Source2</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Relative</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
@@ -160,6 +172,16 @@
           <t>2Bruce1</t>
         </is>
       </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
@@ -180,6 +202,16 @@
           <t>2Abone1</t>
         </is>
       </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
@@ -196,6 +228,16 @@
       <c r="E5" s="3" t="n">
         <v>21.0</v>
       </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>47.62%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
@@ -216,6 +258,16 @@
           <t>2Bruce2</t>
         </is>
       </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
@@ -236,6 +288,16 @@
           <t>2Abone2</t>
         </is>
       </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
@@ -252,6 +314,16 @@
       <c r="E8" s="3" t="n">
         <v>22.0</v>
       </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>45.45%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
@@ -267,6 +339,11 @@
           <t>1Martin3</t>
         </is>
       </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
@@ -282,6 +359,11 @@
           <t>1Velky3</t>
         </is>
       </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -295,6 +377,14 @@
       <c r="D11" s="3" t="n">
         <v>13.0</v>
       </c>
+      <c r="F11" s="3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
@@ -310,6 +400,11 @@
           <t>2Bruce4</t>
         </is>
       </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="inlineStr">
@@ -325,6 +420,11 @@
           <t>2Abone4</t>
         </is>
       </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="inlineStr">
@@ -338,6 +438,14 @@
       <c r="E14" s="3" t="n">
         <v>24.0</v>
       </c>
+      <c r="F14" s="3" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="inlineStr">
@@ -353,6 +461,11 @@
           <t>1Martin5</t>
         </is>
       </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="inlineStr">
@@ -368,6 +481,11 @@
           <t>1Velky5</t>
         </is>
       </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="inlineStr">
@@ -381,6 +499,14 @@
       <c r="D17" s="3" t="n">
         <v>15.0</v>
       </c>
+      <c r="F17" s="3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="inlineStr">
@@ -396,6 +522,11 @@
           <t>2Bruce6</t>
         </is>
       </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="inlineStr">
@@ -411,6 +542,11 @@
           <t>2Abone6</t>
         </is>
       </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="inlineStr">
@@ -424,6 +560,14 @@
       <c r="E20" s="3" t="n">
         <v>26.0</v>
       </c>
+      <c r="F20" s="3" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="inlineStr">
@@ -444,6 +588,16 @@
           <t>Martin7</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="inlineStr">
@@ -464,6 +618,16 @@
           <t>Velky7</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="inlineStr">
@@ -480,6 +644,16 @@
       <c r="E23" t="n">
         <v>77.0</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="inlineStr">
@@ -500,6 +674,16 @@
           <t>Bruce8</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="inlineStr">
@@ -520,6 +704,16 @@
           <t>Abone8</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="inlineStr">
@@ -536,9 +730,19 @@
       <c r="E26" s="3" t="n">
         <v>88.0</v>
       </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>82.95%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E26"/>
+  <autoFilter ref="B2:G26"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/streamdetailedreport.xlsx
+++ b/tests/data/desired/streamdetailedreport.xlsx
@@ -20,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11.0"/>
@@ -96,11 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -118,7 +122,7 @@
     <col min="4" max="4" width="12.78125" customWidth="true"/>
     <col min="5" max="5" width="12.9140625" customWidth="true"/>
     <col min="6" max="6" width="14.75390625" customWidth="true"/>
-    <col min="7" max="7" width="12.4609375" customWidth="true"/>
+    <col min="7" max="7" width="13.52734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -177,7 +181,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -207,7 +211,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -228,15 +232,11 @@
       <c r="E5" s="3" t="n">
         <v>21.0</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>47.62%</t>
-        </is>
+      <c r="F5" s="3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.47619047619047616</v>
       </c>
     </row>
     <row r="6">
@@ -263,7 +263,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -293,7 +293,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -314,15 +314,11 @@
       <c r="E8" s="3" t="n">
         <v>22.0</v>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>45.45%</t>
-        </is>
+      <c r="F8" s="3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="9">
@@ -380,10 +376,8 @@
       <c r="F11" s="3" t="n">
         <v>13.0</v>
       </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="G11" s="4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -441,10 +435,8 @@
       <c r="F14" s="3" t="n">
         <v>24.0</v>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="G14" s="4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -502,10 +494,8 @@
       <c r="F17" s="3" t="n">
         <v>15.0</v>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="G17" s="4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -563,10 +553,8 @@
       <c r="F20" s="3" t="n">
         <v>26.0</v>
       </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="G20" s="4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -593,7 +581,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -623,7 +611,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -644,14 +632,12 @@
       <c r="E23" t="n">
         <v>77.0</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -679,7 +665,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -709,7 +695,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -730,15 +716,11 @@
       <c r="E26" s="3" t="n">
         <v>88.0</v>
       </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>82.95%</t>
-        </is>
+      <c r="F26" s="3" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0.8295454545454546</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/desired/streamdetailedreport.xlsx
+++ b/tests/data/desired/streamdetailedreport.xlsx
@@ -632,8 +632,10 @@
       <c r="E23" t="n">
         <v>77.0</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.0</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>

--- a/tests/data/desired/streamdetailedreport.xlsx
+++ b/tests/data/desired/streamdetailedreport.xlsx
@@ -119,8 +119,8 @@
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true"/>
     <col min="3" max="3" width="7.01171875" customWidth="true"/>
-    <col min="4" max="4" width="12.78125" customWidth="true"/>
-    <col min="5" max="5" width="12.9140625" customWidth="true"/>
+    <col min="4" max="4" width="14.7578125" customWidth="true"/>
+    <col min="5" max="5" width="15.51953125" customWidth="true"/>
     <col min="6" max="6" width="14.75390625" customWidth="true"/>
     <col min="7" max="7" width="13.52734375" customWidth="true"/>
   </cols>
@@ -138,12 +138,12 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Source1</t>
+          <t>1st Source</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Source2</t>
+          <t>2nd Source</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">

--- a/tests/data/desired/streamdetailedreport.xlsx
+++ b/tests/data/desired/streamdetailedreport.xlsx
@@ -122,7 +122,7 @@
     <col min="4" max="4" width="14.7578125" customWidth="true"/>
     <col min="5" max="5" width="15.51953125" customWidth="true"/>
     <col min="6" max="6" width="14.75390625" customWidth="true"/>
-    <col min="7" max="7" width="13.52734375" customWidth="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -236,7 +236,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.47619047619047616</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="6">
@@ -318,7 +318,7 @@
         <v>10.0</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -722,7 +722,7 @@
         <v>73.0</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>0.8295454545454546</v>
+        <v>4.866666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/desired/streamdetailedreport.xlsx
+++ b/tests/data/desired/streamdetailedreport.xlsx
@@ -9,7 +9,7 @@
     <sheet name="full" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$G$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$G$2</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -118,7 +118,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true"/>
-    <col min="3" max="3" width="7.01171875" customWidth="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true"/>
     <col min="4" max="4" width="14.7578125" customWidth="true"/>
     <col min="5" max="5" width="15.51953125" customWidth="true"/>
     <col min="6" max="6" width="14.75390625" customWidth="true"/>
@@ -335,6 +335,11 @@
           <t>1Martin3</t>
         </is>
       </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
           <t>yes</t>
@@ -355,6 +360,11 @@
           <t>1Velky3</t>
         </is>
       </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
           <t>yes</t>
@@ -373,6 +383,11 @@
       <c r="D11" s="3" t="n">
         <v>13.0</v>
       </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="F11" s="3" t="n">
         <v>13.0</v>
       </c>
@@ -389,6 +404,11 @@
       <c r="C12" s="3" t="n">
         <v>4.0</v>
       </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
           <t>2Bruce4</t>
@@ -409,6 +429,11 @@
       <c r="C13" s="3" t="n">
         <v>4.0</v>
       </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
           <t>2Abone4</t>
@@ -429,6 +454,11 @@
       <c r="C14" s="3" t="n">
         <v>4.0</v>
       </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="E14" s="3" t="n">
         <v>24.0</v>
       </c>
@@ -453,6 +483,11 @@
           <t>1Martin5</t>
         </is>
       </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
           <t>yes</t>
@@ -473,6 +508,11 @@
           <t>1Velky5</t>
         </is>
       </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
           <t>yes</t>
@@ -491,6 +531,11 @@
       <c r="D17" s="3" t="n">
         <v>15.0</v>
       </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="F17" s="3" t="n">
         <v>15.0</v>
       </c>
@@ -507,6 +552,11 @@
       <c r="C18" s="3" t="n">
         <v>6.0</v>
       </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
           <t>2Bruce6</t>
@@ -527,6 +577,11 @@
       <c r="C19" s="3" t="n">
         <v>6.0</v>
       </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
+      </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
           <t>2Abone6</t>
@@ -546,6 +601,11 @@
       </c>
       <c r="C20" s="3" t="n">
         <v>6.0</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
       <c r="E20" s="3" t="n">
         <v>26.0</v>

--- a/tests/data/desired/streamdetailedreport.xlsx
+++ b/tests/data/desired/streamdetailedreport.xlsx
@@ -9,7 +9,7 @@
     <sheet name="full" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$G$26</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -23,7 +23,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -36,16 +36,30 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -53,7 +67,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -62,17 +78,7 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -82,7 +88,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="22"/>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -99,12 +110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>

--- a/tests/data/desired/streamdetailedreport.xlsx
+++ b/tests/data/desired/streamdetailedreport.xlsx
@@ -130,9 +130,9 @@
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true"/>
     <col min="3" max="3" width="8.0" customWidth="true"/>
-    <col min="4" max="4" width="14.7578125" customWidth="true"/>
-    <col min="5" max="5" width="15.51953125" customWidth="true"/>
-    <col min="6" max="6" width="14.75390625" customWidth="true"/>
+    <col min="4" max="4" width="23.234375" customWidth="true"/>
+    <col min="5" max="5" width="23.875" customWidth="true"/>
+    <col min="6" max="6" width="14.7578125" customWidth="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -149,12 +149,12 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>1st Source</t>
+          <t>Value in 1st Source</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2nd Source</t>
+          <t>Value in 2nd Source</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
